--- a/If_rain.xlsx
+++ b/If_rain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET\Desktop\機器學習專案\ML\extend_X_feature\weather\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morri\Documents\GitHub\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE440C7-C3A9-4820-BD91-B1CEB1086434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E24203-2B8E-4620-AF6A-F6A8A9F9B44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -39,17 +39,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -360,18 +360,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,7 +379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>20231002</v>
       </c>
@@ -387,7 +387,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>20231003</v>
       </c>
@@ -395,7 +395,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>20231004</v>
       </c>
@@ -403,7 +403,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>20231005</v>
       </c>
@@ -411,7 +411,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>20231006</v>
       </c>
@@ -419,7 +419,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>20231007</v>
       </c>
@@ -427,7 +427,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>20231008</v>
       </c>
@@ -435,7 +435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>20231009</v>
       </c>
@@ -443,7 +443,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>20231010</v>
       </c>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>20231011</v>
       </c>
@@ -459,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>20231012</v>
       </c>
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>20231013</v>
       </c>
@@ -475,7 +475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>20231014</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>20231015</v>
       </c>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>20231016</v>
       </c>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>20231017</v>
       </c>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>20231018</v>
       </c>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>20231019</v>
       </c>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>20231020</v>
       </c>
@@ -531,7 +531,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20231021</v>
       </c>
@@ -539,7 +539,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>20231022</v>
       </c>
@@ -547,7 +547,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>20231023</v>
       </c>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>20231024</v>
       </c>
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>20231025</v>
       </c>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>20231026</v>
       </c>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>20231027</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>20231028</v>
       </c>
@@ -595,7 +595,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>20231029</v>
       </c>
@@ -603,7 +603,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>20231030</v>
       </c>
@@ -611,7 +611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>20231031</v>
       </c>
@@ -619,7 +619,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>20231101</v>
       </c>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>20231102</v>
       </c>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>20231103</v>
       </c>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>20231104</v>
       </c>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>20231105</v>
       </c>
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>20231106</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>20231107</v>
       </c>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>20231108</v>
       </c>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>20231109</v>
       </c>
@@ -691,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>20231110</v>
       </c>
@@ -699,7 +699,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>20231111</v>
       </c>
@@ -707,7 +707,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>20231112</v>
       </c>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>20231113</v>
       </c>
@@ -723,7 +723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>20231114</v>
       </c>
@@ -731,7 +731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>20231115</v>
       </c>
@@ -739,7 +739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>20231116</v>
       </c>
@@ -747,7 +747,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>20231117</v>
       </c>
@@ -755,7 +755,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>20231118</v>
       </c>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>20231119</v>
       </c>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>20231120</v>
       </c>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>20231121</v>
       </c>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>20231122</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>20231123</v>
       </c>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>20231124</v>
       </c>
@@ -811,7 +811,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>20231125</v>
       </c>
@@ -819,7 +819,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>20231126</v>
       </c>
@@ -827,7 +827,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>20231127</v>
       </c>
@@ -835,7 +835,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>20231128</v>
       </c>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>20231129</v>
       </c>
@@ -851,7 +851,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>20231130</v>
       </c>
@@ -859,7 +859,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>20231201</v>
       </c>
@@ -867,7 +867,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>20231202</v>
       </c>
@@ -875,7 +875,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>20231203</v>
       </c>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>20231204</v>
       </c>
@@ -891,7 +891,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>20231205</v>
       </c>
@@ -899,7 +899,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>20231206</v>
       </c>
@@ -907,7 +907,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>20231207</v>
       </c>
@@ -915,11 +915,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>20231208</v>
       </c>
       <c r="B69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>20231209</v>
+      </c>
+      <c r="B70" s="1">
         <v>0</v>
       </c>
     </row>
